--- a/files/test.xlsx
+++ b/files/test.xlsx
@@ -561,13 +561,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J1" sqref="I1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="2" max="2" width="47.42578125" customWidth="1"/>
+    <col min="9" max="9" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
